--- a/MatchingGame/data.xlsx
+++ b/MatchingGame/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Từ vựng APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8_Tiếng Trung\Lớp Tiếng trung cơ bản 2\_App\hello_chinese2\MatchingGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20CF5FB-411B-42C9-975E-CBC802235DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF861CC-23F8-479A-A0A7-EA2F46B9AB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="809">
   <si>
     <t>担心</t>
   </si>
@@ -2279,76 +2279,237 @@
     <t>Bạn ít nhất phải nghỉ ngơi hai ngày.</t>
   </si>
   <si>
-    <t>叫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiào</t>
-  </si>
-  <si>
-    <t>gọi, tên là</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qǐng</t>
-  </si>
-  <si>
-    <t>Mời, xin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wèn</t>
-  </si>
-  <si>
-    <t>Hỏi</t>
-  </si>
-  <si>
-    <t>吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chī</t>
-  </si>
-  <si>
-    <t>Ăn</t>
-  </si>
-  <si>
-    <t>喝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hē</t>
-  </si>
-  <si>
-    <t>Uống</t>
-  </si>
-  <si>
-    <t>说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuō</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nói</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>谁</t>
+  </si>
+  <si>
+    <t>shéi / shuí</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǎ / něi </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nào</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呢</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>Thì sao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Của</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+  </si>
+  <si>
+    <t>liǎng</t>
+  </si>
+  <si>
+    <t>Hai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>hé</t>
+  </si>
+  <si>
+    <t>Và, với</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>gè</t>
+  </si>
+  <si>
+    <t>Cái</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>běn</t>
+  </si>
+  <si>
+    <t>Quyển</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条</t>
+  </si>
+  <si>
+    <t>tiáo</t>
+  </si>
+  <si>
+    <t>Chiếc, cái, sợi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>jiàn</t>
+  </si>
+  <si>
+    <t>Cái, chiếc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>zhāng</t>
+  </si>
+  <si>
+    <t>Tờ, tấm, cái</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把</t>
+  </si>
+  <si>
+    <t>bǎ</t>
+  </si>
+  <si>
+    <t>con, cái</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>zhī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双</t>
+  </si>
+  <si>
+    <t>shuāng</t>
+  </si>
+  <si>
+    <t>Đôi, cặp</t>
+  </si>
+  <si>
+    <t>辆</t>
+  </si>
+  <si>
+    <t>liàng</t>
+  </si>
+  <si>
+    <t>Chiếc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t>kàn</t>
+  </si>
+  <si>
+    <t>Nhìn, xem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>dǎ</t>
+  </si>
+  <si>
+    <t>Đánh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢</t>
+  </si>
+  <si>
+    <t>tī</t>
+  </si>
+  <si>
+    <t>Đá</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
+    <t>chuān</t>
+  </si>
+  <si>
+    <t>Mặc, đi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tóngxué</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bạn học</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>péngyou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bạn bè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>diànshì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti vi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
   </si>
   <si>
     <r>
-      <t>x</t>
+      <t>diàny</t>
     </r>
     <r>
       <rPr>
@@ -2365,252 +2526,41 @@
         <color theme="1"/>
         <rFont val="Mulish"/>
       </rPr>
-      <t>huān</t>
+      <t>ng</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thích</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shénme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gì, cái gì</t>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>míngzi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>贵姓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guìxìng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quý tính</t>
-  </si>
-  <si>
-    <t>姓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xìng</t>
-  </si>
-  <si>
-    <t>Họ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tā</t>
-  </si>
-  <si>
-    <t>Anh ấy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cô ấy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hậu tố số nhiều </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rén</t>
-  </si>
-  <si>
-    <t>Người</t>
-  </si>
-  <si>
-    <t>也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yě</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cũng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dōu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Đều</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhōngguó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trung Quốc</t>
-  </si>
-  <si>
-    <t>美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Měiguó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mỹ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yīngguó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hánguó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hàn Quốc</t>
-  </si>
-  <si>
-    <t>泰国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tàiguó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thái Lan</t>
-  </si>
-  <si>
-    <t>德国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Déguó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>法国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fǎguó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pháp</t>
-  </si>
-  <si>
-    <t>日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rìběn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nhật Bản</t>
-  </si>
-  <si>
-    <t>越南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yuènán</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
-    <t>汉语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hànyǔ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiếng Hán</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yīngyǔ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiếng Anh</t>
+    <t>Phim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>yīfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quần áo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>yánsè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Màu sắc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2631,27 +2581,6 @@
       <name val="Mulish"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2663,11 +2592,6 @@
       <name val="Kaiti"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Mulish"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2684,7 +2608,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2722,48 +2646,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3045,37 +2978,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2DAA60-96FB-43B8-AF68-6EADD50DD381}">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>739</v>
       </c>
     </row>
@@ -3083,1249 +3015,980 @@
       <c r="A3" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>768</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>771</v>
       </c>
+      <c r="C13" s="8" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>774</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>777</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>780</v>
       </c>
+      <c r="C16" s="8" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>783</v>
       </c>
+      <c r="C17" s="8" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>786</v>
       </c>
+      <c r="C18" s="8" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>789</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="B21" s="13" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="26.1" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="8" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="26.1" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>798</v>
       </c>
+      <c r="C22" s="8" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="26.1" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="8" t="s">
         <v>801</v>
       </c>
+      <c r="C23" s="8" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="26.1" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="8" t="s">
         <v>804</v>
       </c>
+      <c r="C24" s="8" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="26.1" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="8" t="s">
         <v>807</v>
       </c>
+      <c r="C25" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="26.1" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>810</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:3" ht="26.1" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>813</v>
-      </c>
+      <c r="A27"/>
     </row>
     <row r="28" spans="1:3" ht="26.1" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>816</v>
-      </c>
+      <c r="A28"/>
     </row>
     <row r="29" spans="1:3" ht="26.1" customHeight="1">
       <c r="A29"/>
-      <c r="B29"/>
     </row>
     <row r="30" spans="1:3" ht="26.1" customHeight="1">
       <c r="A30"/>
-      <c r="B30"/>
     </row>
     <row r="31" spans="1:3" ht="26.1" customHeight="1">
       <c r="A31"/>
-      <c r="B31"/>
     </row>
     <row r="32" spans="1:3" ht="26.1" customHeight="1">
       <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="33" spans="1:2" ht="26.1" customHeight="1">
       <c r="A33"/>
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="34" spans="1:2" ht="26.1" customHeight="1">
       <c r="A34"/>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:3" ht="26.1" customHeight="1">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="26.1" customHeight="1">
       <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:3" ht="26.1" customHeight="1">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="26.1" customHeight="1">
       <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="37" spans="1:2" ht="26.1" customHeight="1">
       <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="38" spans="1:2" ht="26.1" customHeight="1">
       <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="39" spans="1:2" ht="26.1" customHeight="1">
       <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="40" spans="1:2" ht="26.1" customHeight="1">
       <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="41" spans="1:2" ht="26.1" customHeight="1">
       <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="42" spans="1:2" ht="26.1" customHeight="1">
       <c r="A42"/>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="43" spans="1:2" ht="26.1" customHeight="1">
       <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="44" spans="1:2" ht="26.1" customHeight="1">
       <c r="A44"/>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="45" spans="1:2" ht="26.1" customHeight="1">
       <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="46" spans="1:2" ht="26.1" customHeight="1">
       <c r="A46"/>
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="47" spans="1:2" ht="26.1" customHeight="1">
       <c r="A47"/>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:3" ht="26.1" customHeight="1">
+    </row>
+    <row r="48" spans="1:2" ht="26.1" customHeight="1">
       <c r="A48"/>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="49" spans="1:1" ht="26.1" customHeight="1">
       <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="50" spans="1:1" ht="26.1" customHeight="1">
       <c r="A50"/>
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="51" spans="1:1" ht="26.1" customHeight="1">
       <c r="A51"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="52" spans="1:1" ht="26.1" customHeight="1">
       <c r="A52"/>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="53" spans="1:1" ht="26.1" customHeight="1">
       <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="54" spans="1:1" ht="26.1" customHeight="1">
       <c r="A54"/>
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="55" spans="1:1" ht="26.1" customHeight="1">
       <c r="A55"/>
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="56" spans="1:1" ht="26.1" customHeight="1">
       <c r="A56"/>
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="57" spans="1:1" ht="26.1" customHeight="1">
       <c r="A57"/>
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="58" spans="1:1" ht="26.1" customHeight="1">
       <c r="A58"/>
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="59" spans="1:1" ht="26.1" customHeight="1">
       <c r="A59"/>
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="60" spans="1:1" ht="26.1" customHeight="1">
       <c r="A60"/>
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="61" spans="1:1" ht="26.1" customHeight="1">
       <c r="A61"/>
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="62" spans="1:1" ht="26.1" customHeight="1">
       <c r="A62"/>
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="63" spans="1:1" ht="26.1" customHeight="1">
       <c r="A63"/>
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="64" spans="1:1" ht="26.1" customHeight="1">
       <c r="A64"/>
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="65" spans="1:1" ht="26.1" customHeight="1">
       <c r="A65"/>
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="66" spans="1:1" ht="26.1" customHeight="1">
       <c r="A66"/>
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="67" spans="1:1" ht="26.1" customHeight="1">
       <c r="A67"/>
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="68" spans="1:1" ht="26.1" customHeight="1">
       <c r="A68"/>
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="69" spans="1:1" ht="26.1" customHeight="1">
       <c r="A69"/>
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="70" spans="1:1" ht="26.1" customHeight="1">
       <c r="A70"/>
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="71" spans="1:1" ht="26.1" customHeight="1">
       <c r="A71"/>
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="72" spans="1:1" ht="26.1" customHeight="1">
       <c r="A72"/>
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="73" spans="1:1" ht="26.1" customHeight="1">
       <c r="A73"/>
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="74" spans="1:1" ht="26.1" customHeight="1">
       <c r="A74"/>
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="75" spans="1:1" ht="26.1" customHeight="1">
       <c r="A75"/>
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="76" spans="1:1" ht="26.1" customHeight="1">
       <c r="A76"/>
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="77" spans="1:1" ht="26.1" customHeight="1">
       <c r="A77"/>
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="78" spans="1:1" ht="26.1" customHeight="1">
       <c r="A78"/>
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="79" spans="1:1" ht="26.1" customHeight="1">
       <c r="A79"/>
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="80" spans="1:1" ht="26.1" customHeight="1">
       <c r="A80"/>
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="81" spans="1:1" ht="26.1" customHeight="1">
       <c r="A81"/>
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="82" spans="1:1" ht="26.1" customHeight="1">
       <c r="A82"/>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="83" spans="1:1" ht="26.1" customHeight="1">
       <c r="A83"/>
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="84" spans="1:1" ht="26.1" customHeight="1">
       <c r="A84"/>
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="85" spans="1:1" ht="26.1" customHeight="1">
       <c r="A85"/>
-      <c r="B85"/>
-    </row>
-    <row r="86" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="86" spans="1:1" ht="26.1" customHeight="1">
       <c r="A86"/>
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="87" spans="1:1" ht="26.1" customHeight="1">
       <c r="A87"/>
-      <c r="B87"/>
-    </row>
-    <row r="88" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="88" spans="1:1" ht="26.1" customHeight="1">
       <c r="A88"/>
-      <c r="B88"/>
-    </row>
-    <row r="89" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="89" spans="1:1" ht="26.1" customHeight="1">
       <c r="A89"/>
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="90" spans="1:1" ht="26.1" customHeight="1">
       <c r="A90"/>
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="91" spans="1:1" ht="26.1" customHeight="1">
       <c r="A91"/>
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="92" spans="1:1" ht="26.1" customHeight="1">
       <c r="A92"/>
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="93" spans="1:1" ht="26.1" customHeight="1">
       <c r="A93"/>
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="94" spans="1:1" ht="26.1" customHeight="1">
       <c r="A94"/>
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="95" spans="1:1" ht="26.1" customHeight="1">
       <c r="A95"/>
-      <c r="B95"/>
-    </row>
-    <row r="96" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="96" spans="1:1" ht="26.1" customHeight="1">
       <c r="A96"/>
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="97" spans="1:1" ht="26.1" customHeight="1">
       <c r="A97"/>
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="98" spans="1:1" ht="26.1" customHeight="1">
       <c r="A98"/>
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="99" spans="1:1" ht="26.1" customHeight="1">
       <c r="A99"/>
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="100" spans="1:1" ht="26.1" customHeight="1">
       <c r="A100"/>
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="101" spans="1:1" ht="26.1" customHeight="1">
       <c r="A101"/>
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="102" spans="1:1" ht="26.1" customHeight="1">
       <c r="A102"/>
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="103" spans="1:1" ht="26.1" customHeight="1">
       <c r="A103"/>
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="104" spans="1:1" ht="26.1" customHeight="1">
       <c r="A104"/>
-      <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="105" spans="1:1" ht="26.1" customHeight="1">
       <c r="A105"/>
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="106" spans="1:1" ht="26.1" customHeight="1">
       <c r="A106"/>
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="107" spans="1:1" ht="26.1" customHeight="1">
       <c r="A107"/>
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="108" spans="1:1" ht="26.1" customHeight="1">
       <c r="A108"/>
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="109" spans="1:1" ht="26.1" customHeight="1">
       <c r="A109"/>
-      <c r="B109"/>
-    </row>
-    <row r="110" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="110" spans="1:1" ht="26.1" customHeight="1">
       <c r="A110"/>
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="111" spans="1:1" ht="26.1" customHeight="1">
       <c r="A111"/>
-      <c r="B111"/>
-    </row>
-    <row r="112" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="112" spans="1:1" ht="26.1" customHeight="1">
       <c r="A112"/>
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="113" spans="1:1" ht="26.1" customHeight="1">
       <c r="A113"/>
-      <c r="B113"/>
-    </row>
-    <row r="114" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="114" spans="1:1" ht="26.1" customHeight="1">
       <c r="A114"/>
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="115" spans="1:1" ht="26.1" customHeight="1">
       <c r="A115"/>
-      <c r="B115"/>
-    </row>
-    <row r="116" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="116" spans="1:1" ht="26.1" customHeight="1">
       <c r="A116"/>
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="117" spans="1:1" ht="26.1" customHeight="1">
       <c r="A117"/>
-      <c r="B117"/>
-    </row>
-    <row r="118" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="118" spans="1:1" ht="26.1" customHeight="1">
       <c r="A118"/>
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="119" spans="1:1" ht="26.1" customHeight="1">
       <c r="A119"/>
-      <c r="B119"/>
-    </row>
-    <row r="120" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="120" spans="1:1" ht="26.1" customHeight="1">
       <c r="A120"/>
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="121" spans="1:1" ht="26.1" customHeight="1">
       <c r="A121"/>
-      <c r="B121"/>
-    </row>
-    <row r="122" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="122" spans="1:1" ht="26.1" customHeight="1">
       <c r="A122"/>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="123" spans="1:1" ht="20.25" customHeight="1">
       <c r="A123"/>
-      <c r="B123"/>
-    </row>
-    <row r="124" spans="1:2" ht="26.1" customHeight="1">
+    </row>
+    <row r="124" spans="1:1" ht="20.25" customHeight="1">
       <c r="A124"/>
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="1:2" ht="20.25" customHeight="1">
+    </row>
+    <row r="125" spans="1:1" ht="20.25" customHeight="1">
       <c r="A125"/>
-      <c r="B125"/>
-    </row>
-    <row r="126" spans="1:2" ht="20.25" customHeight="1">
+    </row>
+    <row r="126" spans="1:1" ht="20.25" customHeight="1">
       <c r="A126"/>
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="1:2" ht="20.25" customHeight="1">
+    </row>
+    <row r="127" spans="1:1" ht="14.25">
       <c r="A127"/>
-      <c r="B127"/>
-    </row>
-    <row r="128" spans="1:2" ht="20.25" customHeight="1">
+    </row>
+    <row r="128" spans="1:1" ht="14.25">
       <c r="A128"/>
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="1:2" ht="14.25">
+    </row>
+    <row r="129" spans="1:1" ht="14.25">
       <c r="A129"/>
-      <c r="B129"/>
-    </row>
-    <row r="130" spans="1:2" ht="14.25">
+    </row>
+    <row r="130" spans="1:1" ht="14.25">
       <c r="A130"/>
-      <c r="B130"/>
-    </row>
-    <row r="131" spans="1:2" ht="14.25">
+    </row>
+    <row r="131" spans="1:1" ht="14.25">
       <c r="A131"/>
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="10"/>
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="1:2" ht="20.25">
-      <c r="A133" s="6"/>
-      <c r="B133"/>
-    </row>
-    <row r="134" spans="1:2" ht="20.25">
-      <c r="A134" s="6"/>
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="1:2" ht="20.25">
-      <c r="A135" s="6"/>
-      <c r="B135"/>
-    </row>
-    <row r="136" spans="1:2" ht="20.25">
-      <c r="A136" s="6"/>
-      <c r="B136"/>
-    </row>
-    <row r="137" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A137" s="6"/>
-      <c r="B137"/>
-    </row>
-    <row r="138" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A138" s="6"/>
-      <c r="B138"/>
-    </row>
-    <row r="139" spans="1:2" ht="20.25">
-      <c r="A139" s="6"/>
-      <c r="B139"/>
-    </row>
-    <row r="140" spans="1:2" ht="20.25">
-      <c r="A140" s="6"/>
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="1:2" ht="20.25">
-      <c r="A141" s="6"/>
-      <c r="B141"/>
-    </row>
-    <row r="142" spans="1:2" ht="20.25">
-      <c r="A142" s="6"/>
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" ht="20.25">
-      <c r="A143" s="6"/>
-      <c r="B143"/>
-    </row>
-    <row r="144" spans="1:2" ht="20.25">
-      <c r="A144" s="6"/>
-      <c r="B144"/>
-    </row>
-    <row r="145" spans="1:2" ht="20.25">
-      <c r="A145" s="6"/>
-      <c r="B145"/>
-    </row>
-    <row r="146" spans="1:2" ht="20.25">
-      <c r="A146" s="6"/>
-      <c r="B146"/>
-    </row>
-    <row r="147" spans="1:2" ht="20.25">
-      <c r="A147" s="6"/>
-      <c r="B147"/>
-    </row>
-    <row r="148" spans="1:2" ht="20.25">
-      <c r="A148" s="6"/>
-      <c r="B148"/>
-    </row>
-    <row r="149" spans="1:2" ht="20.25">
-      <c r="A149" s="6"/>
-      <c r="B149"/>
-    </row>
-    <row r="150" spans="1:2" ht="20.25">
-      <c r="A150" s="6"/>
-      <c r="B150"/>
-    </row>
-    <row r="151" spans="1:2" ht="20.25">
-      <c r="A151" s="6"/>
-      <c r="B151"/>
-    </row>
-    <row r="152" spans="1:2" ht="20.25">
-      <c r="A152" s="6"/>
-      <c r="B152"/>
-    </row>
-    <row r="153" spans="1:2" ht="20.25">
-      <c r="A153" s="6"/>
-      <c r="B153"/>
-    </row>
-    <row r="154" spans="1:2" ht="20.25">
-      <c r="A154" s="6"/>
-      <c r="B154"/>
-    </row>
-    <row r="155" spans="1:2" ht="20.25">
-      <c r="A155" s="6"/>
-      <c r="B155"/>
-    </row>
-    <row r="156" spans="1:2" ht="20.25">
-      <c r="A156" s="6"/>
-      <c r="B156"/>
-    </row>
-    <row r="157" spans="1:2" ht="20.25">
-      <c r="A157" s="6"/>
-      <c r="B157"/>
-    </row>
-    <row r="158" spans="1:2" ht="20.25">
-      <c r="A158" s="6"/>
-      <c r="B158"/>
-    </row>
-    <row r="159" spans="1:2" ht="20.25">
-      <c r="A159" s="6"/>
-      <c r="B159"/>
-    </row>
-    <row r="160" spans="1:2" ht="20.25">
-      <c r="A160" s="6"/>
-      <c r="B160"/>
-    </row>
-    <row r="161" spans="1:2" ht="20.25">
-      <c r="A161" s="6"/>
-      <c r="B161"/>
-    </row>
-    <row r="162" spans="1:2" ht="20.25">
-      <c r="A162" s="6"/>
-      <c r="B162"/>
-    </row>
-    <row r="163" spans="1:2" ht="20.25">
-      <c r="A163" s="6"/>
-      <c r="B163"/>
-    </row>
-    <row r="164" spans="1:2" ht="20.25">
-      <c r="A164" s="6"/>
-      <c r="B164"/>
-    </row>
-    <row r="165" spans="1:2" ht="20.25">
-      <c r="A165" s="6"/>
-      <c r="B165"/>
-    </row>
-    <row r="166" spans="1:2" ht="20.25">
-      <c r="A166" s="6"/>
-      <c r="B166"/>
-    </row>
-    <row r="167" spans="1:2" ht="20.25">
-      <c r="A167" s="6"/>
-      <c r="B167"/>
-    </row>
-    <row r="168" spans="1:2" ht="20.25">
-      <c r="A168" s="6"/>
-      <c r="B168"/>
-    </row>
-    <row r="169" spans="1:2" ht="20.25">
-      <c r="A169" s="6"/>
-      <c r="B169"/>
-    </row>
-    <row r="170" spans="1:2" ht="20.25">
-      <c r="A170" s="6"/>
-      <c r="B170"/>
-    </row>
-    <row r="171" spans="1:2" ht="20.25">
-      <c r="A171" s="6"/>
-      <c r="B171"/>
-    </row>
-    <row r="172" spans="1:2" ht="20.25">
-      <c r="A172" s="6"/>
-      <c r="B172"/>
-    </row>
-    <row r="173" spans="1:2" ht="20.25">
-      <c r="A173" s="6"/>
-      <c r="B173"/>
-    </row>
-    <row r="174" spans="1:2" ht="20.25">
-      <c r="A174" s="6"/>
-      <c r="B174"/>
-    </row>
-    <row r="175" spans="1:2" ht="20.25">
-      <c r="A175" s="6"/>
-      <c r="B175"/>
-    </row>
-    <row r="176" spans="1:2" ht="20.25">
-      <c r="A176" s="6"/>
-      <c r="B176"/>
-    </row>
-    <row r="177" spans="1:2" ht="20.25">
-      <c r="A177" s="6"/>
-      <c r="B177"/>
-    </row>
-    <row r="178" spans="1:2" ht="20.25">
-      <c r="A178" s="6"/>
-      <c r="B178"/>
-    </row>
-    <row r="179" spans="1:2" ht="20.25">
-      <c r="A179" s="6"/>
-      <c r="B179"/>
-    </row>
-    <row r="180" spans="1:2" ht="20.25">
-      <c r="A180" s="6"/>
-      <c r="B180"/>
-    </row>
-    <row r="181" spans="1:2" ht="20.25">
-      <c r="A181" s="6"/>
-      <c r="B181"/>
-    </row>
-    <row r="182" spans="1:2" ht="20.25">
-      <c r="A182" s="6"/>
-      <c r="B182"/>
-    </row>
-    <row r="183" spans="1:2" ht="20.25">
-      <c r="A183" s="6"/>
-      <c r="B183"/>
-    </row>
-    <row r="184" spans="1:2" ht="20.25">
-      <c r="A184" s="6"/>
-      <c r="B184"/>
-    </row>
-    <row r="185" spans="1:2" ht="20.25">
-      <c r="A185" s="6"/>
-      <c r="B185"/>
-    </row>
-    <row r="186" spans="1:2" ht="20.25">
-      <c r="A186" s="6"/>
-      <c r="B186"/>
-    </row>
-    <row r="187" spans="1:2" ht="20.25">
-      <c r="A187" s="6"/>
-      <c r="B187"/>
-    </row>
-    <row r="188" spans="1:2" ht="20.25">
-      <c r="A188" s="6"/>
-      <c r="B188"/>
-    </row>
-    <row r="189" spans="1:2" ht="20.25">
-      <c r="A189" s="6"/>
-      <c r="B189"/>
-    </row>
-    <row r="190" spans="1:2" ht="20.25">
-      <c r="A190" s="6"/>
-      <c r="B190"/>
-    </row>
-    <row r="191" spans="1:2" ht="20.25">
-      <c r="A191" s="6"/>
-      <c r="B191"/>
-    </row>
-    <row r="192" spans="1:2" ht="20.25">
-      <c r="A192" s="6"/>
-      <c r="B192"/>
-    </row>
-    <row r="193" spans="1:2" ht="20.25">
-      <c r="A193" s="6"/>
-      <c r="B193"/>
-    </row>
-    <row r="194" spans="1:2" ht="20.25">
-      <c r="A194" s="6"/>
-      <c r="B194"/>
-    </row>
-    <row r="195" spans="1:2" ht="20.25">
-      <c r="A195" s="6"/>
-      <c r="B195"/>
-    </row>
-    <row r="196" spans="1:2" ht="20.25">
-      <c r="A196" s="6"/>
-      <c r="B196"/>
-    </row>
-    <row r="197" spans="1:2" ht="20.25">
-      <c r="A197" s="6"/>
-      <c r="B197"/>
-    </row>
-    <row r="198" spans="1:2" ht="20.25">
-      <c r="A198" s="6"/>
-      <c r="B198"/>
-    </row>
-    <row r="199" spans="1:2" ht="20.25">
-      <c r="A199" s="6"/>
-      <c r="B199"/>
-    </row>
-    <row r="200" spans="1:2" ht="20.25">
-      <c r="A200" s="6"/>
-      <c r="B200"/>
-    </row>
-    <row r="201" spans="1:2" ht="20.25">
-      <c r="A201" s="6"/>
-      <c r="B201"/>
-    </row>
-    <row r="202" spans="1:2" ht="20.25">
-      <c r="A202" s="6"/>
-      <c r="B202"/>
-    </row>
-    <row r="203" spans="1:2" ht="20.25">
-      <c r="A203" s="6"/>
-      <c r="B203"/>
-    </row>
-    <row r="204" spans="1:2" ht="20.25">
-      <c r="A204" s="6"/>
-      <c r="B204"/>
-    </row>
-    <row r="205" spans="1:2" ht="20.25">
-      <c r="A205" s="6"/>
-      <c r="B205"/>
-    </row>
-    <row r="206" spans="1:2" ht="20.25">
-      <c r="A206" s="6"/>
-      <c r="B206"/>
-    </row>
-    <row r="207" spans="1:2" ht="20.25">
-      <c r="A207" s="6"/>
-      <c r="B207"/>
-    </row>
-    <row r="208" spans="1:2" ht="20.25">
-      <c r="A208" s="6"/>
-      <c r="B208"/>
-    </row>
-    <row r="209" spans="1:2" ht="20.25">
-      <c r="A209" s="6"/>
-      <c r="B209"/>
-    </row>
-    <row r="210" spans="1:2" ht="20.25">
-      <c r="A210" s="6"/>
-      <c r="B210"/>
-    </row>
-    <row r="211" spans="1:2" ht="20.25">
-      <c r="A211" s="6"/>
-      <c r="B211"/>
-    </row>
-    <row r="212" spans="1:2" ht="20.25">
-      <c r="A212" s="6"/>
-      <c r="B212"/>
-    </row>
-    <row r="213" spans="1:2" ht="20.25">
-      <c r="A213" s="6"/>
-      <c r="B213"/>
-    </row>
-    <row r="214" spans="1:2" ht="20.25">
-      <c r="A214" s="6"/>
-      <c r="B214"/>
-    </row>
-    <row r="215" spans="1:2" ht="20.25">
-      <c r="A215" s="6"/>
-      <c r="B215"/>
-    </row>
-    <row r="216" spans="1:2" ht="20.25">
-      <c r="A216" s="6"/>
-      <c r="B216"/>
-    </row>
-    <row r="217" spans="1:2" ht="20.25">
-      <c r="A217" s="6"/>
-      <c r="B217"/>
-    </row>
-    <row r="218" spans="1:2" ht="20.25">
-      <c r="A218" s="6"/>
-      <c r="B218"/>
-    </row>
-    <row r="219" spans="1:2" ht="20.25">
-      <c r="A219" s="6"/>
-      <c r="B219"/>
-    </row>
-    <row r="220" spans="1:2" ht="20.25">
-      <c r="A220" s="6"/>
-      <c r="B220"/>
-    </row>
-    <row r="221" spans="1:2" ht="20.25">
-      <c r="A221" s="6"/>
-      <c r="B221"/>
-    </row>
-    <row r="222" spans="1:2" ht="20.25">
-      <c r="A222" s="6"/>
-      <c r="B222"/>
-    </row>
-    <row r="223" spans="1:2" ht="20.25">
-      <c r="A223" s="6"/>
-      <c r="B223"/>
-    </row>
-    <row r="224" spans="1:2" ht="20.25">
-      <c r="A224" s="6"/>
-      <c r="B224"/>
-    </row>
-    <row r="225" spans="1:2" ht="20.25">
-      <c r="A225" s="6"/>
-      <c r="B225"/>
-    </row>
-    <row r="226" spans="1:2" ht="20.25">
-      <c r="A226" s="6"/>
-      <c r="B226"/>
-    </row>
-    <row r="227" spans="1:2" ht="20.25">
-      <c r="A227" s="6"/>
-      <c r="B227"/>
-    </row>
-    <row r="228" spans="1:2" ht="20.25">
-      <c r="A228" s="6"/>
-      <c r="B228"/>
-    </row>
-    <row r="229" spans="1:2" ht="20.25">
-      <c r="A229" s="6"/>
-      <c r="B229"/>
-    </row>
-    <row r="230" spans="1:2" ht="20.25">
-      <c r="A230" s="6"/>
-      <c r="B230"/>
-    </row>
-    <row r="231" spans="1:2" ht="20.25">
-      <c r="A231" s="6"/>
-      <c r="B231"/>
-    </row>
-    <row r="232" spans="1:2" ht="20.25">
-      <c r="A232" s="6"/>
-      <c r="B232"/>
-    </row>
-    <row r="233" spans="1:2" ht="20.25">
-      <c r="A233" s="6"/>
-      <c r="B233"/>
-    </row>
-    <row r="234" spans="1:2" ht="20.25">
-      <c r="A234" s="6"/>
-      <c r="B234"/>
-    </row>
-    <row r="235" spans="1:2" ht="20.25">
-      <c r="A235" s="6"/>
-      <c r="B235"/>
-    </row>
-    <row r="236" spans="1:2" ht="20.25">
-      <c r="A236" s="6"/>
-      <c r="B236"/>
-    </row>
-    <row r="237" spans="1:2" ht="20.25">
-      <c r="A237" s="6"/>
-      <c r="B237"/>
-    </row>
-    <row r="238" spans="1:2" ht="20.25">
-      <c r="A238" s="6"/>
-      <c r="B238"/>
-    </row>
-    <row r="239" spans="1:2" ht="20.25">
-      <c r="A239" s="6"/>
-      <c r="B239"/>
-    </row>
-    <row r="240" spans="1:2" ht="20.25">
-      <c r="A240" s="6"/>
-      <c r="B240"/>
-    </row>
-    <row r="241" spans="1:2" ht="20.25">
-      <c r="A241" s="6"/>
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="1:2" ht="20.25">
-      <c r="A242" s="6"/>
-      <c r="B242"/>
-    </row>
-    <row r="243" spans="1:2" ht="20.25">
-      <c r="A243" s="6"/>
-      <c r="B243"/>
-    </row>
-    <row r="244" spans="1:2" ht="21">
-      <c r="A244" s="4"/>
-      <c r="B244" s="5"/>
-    </row>
-    <row r="245" spans="1:2" ht="21">
-      <c r="A245" s="4"/>
-      <c r="B245" s="5"/>
-    </row>
-    <row r="246" spans="1:2" ht="21">
-      <c r="A246" s="4"/>
-      <c r="B246" s="5"/>
-    </row>
-    <row r="247" spans="1:2" ht="21">
-      <c r="A247" s="4"/>
-      <c r="B247" s="5"/>
-    </row>
-    <row r="248" spans="1:2" ht="21">
-      <c r="A248" s="4"/>
-      <c r="B248" s="5"/>
-    </row>
-    <row r="249" spans="1:2" ht="21">
-      <c r="A249" s="4"/>
-      <c r="B249" s="5"/>
-    </row>
-    <row r="250" spans="1:2" ht="21">
-      <c r="A250" s="4"/>
-      <c r="B250" s="5"/>
-    </row>
-    <row r="251" spans="1:2" ht="21">
-      <c r="A251" s="4"/>
-      <c r="B251" s="5"/>
-    </row>
-    <row r="252" spans="1:2" ht="21">
-      <c r="A252" s="4"/>
-      <c r="B252" s="5"/>
-    </row>
-    <row r="253" spans="1:2" ht="21">
-      <c r="A253" s="4"/>
-      <c r="B253" s="5"/>
-    </row>
-    <row r="254" spans="1:2" ht="21">
-      <c r="A254" s="4"/>
-      <c r="B254" s="5"/>
-    </row>
-    <row r="255" spans="1:2" ht="21">
-      <c r="A255" s="4"/>
-      <c r="B255" s="5"/>
-    </row>
-    <row r="256" spans="1:2" ht="21">
-      <c r="A256" s="4"/>
-      <c r="B256" s="5"/>
-    </row>
-    <row r="257" spans="1:2" ht="21">
-      <c r="A257" s="4"/>
-      <c r="B257" s="5"/>
-    </row>
-    <row r="258" spans="1:2" ht="21">
-      <c r="A258" s="4"/>
-      <c r="B258" s="5"/>
-    </row>
-    <row r="259" spans="1:2" ht="21">
-      <c r="A259" s="4"/>
-      <c r="B259" s="5"/>
-    </row>
-    <row r="260" spans="1:2" ht="21">
-      <c r="A260" s="4"/>
-      <c r="B260" s="5"/>
-    </row>
-    <row r="261" spans="1:2" ht="21">
-      <c r="A261" s="4"/>
-      <c r="B261" s="5"/>
-    </row>
-    <row r="262" spans="1:2" ht="21">
-      <c r="A262" s="4"/>
-      <c r="B262" s="5"/>
-    </row>
-    <row r="263" spans="1:2" ht="21">
-      <c r="A263" s="4"/>
-      <c r="B263" s="5"/>
-    </row>
-    <row r="264" spans="1:2" ht="21">
-      <c r="A264" s="4"/>
-      <c r="B264" s="5"/>
-    </row>
-    <row r="265" spans="1:2" ht="21">
-      <c r="A265" s="4"/>
-      <c r="B265" s="5"/>
-    </row>
-    <row r="266" spans="1:2" ht="21">
-      <c r="A266" s="4"/>
-      <c r="B266" s="5"/>
-    </row>
-    <row r="267" spans="1:2" ht="21">
-      <c r="A267" s="4"/>
-      <c r="B267" s="5"/>
-    </row>
-    <row r="268" spans="1:2" ht="21">
-      <c r="A268" s="4"/>
-      <c r="B268" s="5"/>
+    </row>
+    <row r="132" spans="1:1" ht="14.25">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" ht="14.25">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" ht="14.25">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" ht="22.5" customHeight="1">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" ht="22.5" customHeight="1">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" ht="14.25">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" ht="14.25">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" ht="14.25">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" ht="14.25">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" ht="14.25">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" ht="14.25">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" ht="14.25">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" ht="14.25">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" ht="14.25">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" ht="14.25">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" ht="14.25">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" ht="14.25">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1" ht="14.25">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1" ht="14.25">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1" ht="14.25">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1" ht="14.25">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1" ht="14.25">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1" ht="14.25">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1" ht="14.25">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1" ht="14.25">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1" ht="14.25">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1" ht="14.25">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1" ht="14.25">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1" ht="14.25">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1" ht="14.25">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1" ht="14.25">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1" ht="14.25">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1" ht="14.25">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1" ht="14.25">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1" ht="14.25">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1" ht="14.25">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1" ht="14.25">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1" ht="14.25">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1" ht="14.25">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1" ht="14.25">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1" ht="14.25">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1" ht="14.25">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1" ht="14.25">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1" ht="14.25">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1" ht="14.25">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1" ht="14.25">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1" ht="14.25">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1" ht="14.25">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1" ht="14.25">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1" ht="14.25">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1" ht="14.25">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1" ht="14.25">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1" ht="14.25">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1" ht="14.25">
+      <c r="A185"/>
+    </row>
+    <row r="186" spans="1:1" ht="14.25">
+      <c r="A186"/>
+    </row>
+    <row r="187" spans="1:1" ht="14.25">
+      <c r="A187"/>
+    </row>
+    <row r="188" spans="1:1" ht="14.25">
+      <c r="A188"/>
+    </row>
+    <row r="189" spans="1:1" ht="14.25">
+      <c r="A189"/>
+    </row>
+    <row r="190" spans="1:1" ht="14.25">
+      <c r="A190"/>
+    </row>
+    <row r="191" spans="1:1" ht="14.25">
+      <c r="A191"/>
+    </row>
+    <row r="192" spans="1:1" ht="14.25">
+      <c r="A192"/>
+    </row>
+    <row r="193" spans="1:1" ht="14.25">
+      <c r="A193"/>
+    </row>
+    <row r="194" spans="1:1" ht="14.25">
+      <c r="A194"/>
+    </row>
+    <row r="195" spans="1:1" ht="14.25">
+      <c r="A195"/>
+    </row>
+    <row r="196" spans="1:1" ht="14.25">
+      <c r="A196"/>
+    </row>
+    <row r="197" spans="1:1" ht="14.25">
+      <c r="A197"/>
+    </row>
+    <row r="198" spans="1:1" ht="14.25">
+      <c r="A198"/>
+    </row>
+    <row r="199" spans="1:1" ht="14.25">
+      <c r="A199"/>
+    </row>
+    <row r="200" spans="1:1" ht="14.25">
+      <c r="A200"/>
+    </row>
+    <row r="201" spans="1:1" ht="14.25">
+      <c r="A201"/>
+    </row>
+    <row r="202" spans="1:1" ht="14.25">
+      <c r="A202"/>
+    </row>
+    <row r="203" spans="1:1" ht="14.25">
+      <c r="A203"/>
+    </row>
+    <row r="204" spans="1:1" ht="14.25">
+      <c r="A204"/>
+    </row>
+    <row r="205" spans="1:1" ht="14.25">
+      <c r="A205"/>
+    </row>
+    <row r="206" spans="1:1" ht="14.25">
+      <c r="A206"/>
+    </row>
+    <row r="207" spans="1:1" ht="14.25">
+      <c r="A207"/>
+    </row>
+    <row r="208" spans="1:1" ht="14.25">
+      <c r="A208"/>
+    </row>
+    <row r="209" spans="1:1" ht="14.25">
+      <c r="A209"/>
+    </row>
+    <row r="210" spans="1:1" ht="14.25">
+      <c r="A210"/>
+    </row>
+    <row r="211" spans="1:1" ht="14.25">
+      <c r="A211"/>
+    </row>
+    <row r="212" spans="1:1" ht="14.25">
+      <c r="A212"/>
+    </row>
+    <row r="213" spans="1:1" ht="14.25">
+      <c r="A213"/>
+    </row>
+    <row r="214" spans="1:1" ht="14.25">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:1" ht="14.25">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:1" ht="14.25">
+      <c r="A216"/>
+    </row>
+    <row r="217" spans="1:1" ht="14.25">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:1" ht="14.25">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:1" ht="14.25">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:1" ht="14.25">
+      <c r="A220"/>
+    </row>
+    <row r="221" spans="1:1" ht="14.25">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:1" ht="14.25">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:1" ht="14.25">
+      <c r="A223"/>
+    </row>
+    <row r="224" spans="1:1" ht="14.25">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1" ht="14.25">
+      <c r="A225"/>
+    </row>
+    <row r="226" spans="1:1" ht="14.25">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1" ht="14.25">
+      <c r="A227"/>
+    </row>
+    <row r="228" spans="1:1" ht="14.25">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1" ht="14.25">
+      <c r="A229"/>
+    </row>
+    <row r="230" spans="1:1" ht="14.25">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1" ht="14.25">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1" ht="14.25">
+      <c r="A232"/>
+    </row>
+    <row r="233" spans="1:1" ht="14.25">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1" ht="14.25">
+      <c r="A234"/>
+    </row>
+    <row r="235" spans="1:1" ht="14.25">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1" ht="14.25">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:1" ht="14.25">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1" ht="14.25">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:1" ht="14.25">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1" ht="14.25">
+      <c r="A240"/>
+    </row>
+    <row r="241" spans="1:1" ht="14.25">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4349,2956 +4012,2956 @@
   <cols>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="7" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="9" t="str">
+      <c r="G1" s="6" t="str">
         <f>A1&amp;"|"&amp;B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1</f>
         <v>关系|guānxi|quan hệ|他和我的关系很好。|Tā hé wǒ de guānxì hěn hǎo.|Quan hệ giữa anh ấy và tôi rất tốt.</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="G2" s="6" t="str">
         <f t="shared" ref="G2:G65" si="0">A2&amp;"|"&amp;B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
         <v>瓶子|píngzi|cái chai,lọ, bình|桌子上有一个瓶子。|Zhuōzi shàng yǒu yīgè píngzi.|Trên bàn có một cái chai.</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>体育|tǐyù|thể dục|我很喜欢体育。|Wǒ hěn xǐhuān tǐyù.|Tôi rất thích thể thao.</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="G4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>脸色|liǎnsè|sắc mặt|你的脸色不太好。|Nǐ de liǎnsè bù tài hǎo.|Sắc mặt của bạn không tốt lắm.</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="9" t="str">
+      <c r="G5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>康复|kāngfù|bình phục, khỏe lại|祝你早日康复。|Zhù nǐ zǎorì kāngfù.|Chúc bạn sớm hồi phục.</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G6" s="9" t="str">
+      <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>借口|jièkǒu|cái cớ|他有很多借口。|Tā yǒu hěn duō jièkǒu.|Anh ấy có rất nhiều lý do.</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G7" s="9" t="str">
+      <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>健康|jiànkāng|sức khỏe, khỏe mạnh, lành mạnh|健康非常重要。|Jiànkāng fēicháng zhòngyào.|Sức khỏe rất quan trọng.</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="39" thickBot="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="G8" s="9" t="str">
+      <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>饮食|yǐnshí|ẩm thực, ăn uống|你的饮食习惯好吗？|Nǐ de yǐnshí xíguàn hǎo ma?|Thói quen ăn uống của bạn có tốt không?</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G9" s="9" t="str">
+      <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>甜品|tiánpǐn|đồ ngọt|我很喜欢吃甜品。|Wǒ hěn xǐhuān chī tiánpǐn.|Tôi rất thích ăn đồ ngọt.</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="G10" s="9" t="str">
+      <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>压力|yālì|áp lực|我的学习压力很大。|Wǒ de xuéxí yālì hěn dà.|Áp lực học tập của tôi rất lớn.</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="39" thickBot="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>轻音乐|qīng yīnyuè|nhạc nhẹ, nhạc không lời|听轻音乐可以放松。|Tīng qīng yīnyuè kěyǐ fàngsōng.|Nghe nhạc nhẹ có thể thư giãn.</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="39" thickBot="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G12" s="9" t="str">
+      <c r="G12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>效果|xiàoguǒ|hiệu quả|这个药的效果很好。|Zhège yào de xiàoguǒ hěn hǎo.|Hiệu quả của loại thuốc này rất tốt.</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39" thickBot="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G13" s="9" t="str">
+      <c r="G13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>作息|zuòxī|làm việc và nghỉ ngơi|他作息时间不规律。|Tā zuòxī shíjiān bù guīlǜ.|Giờ giấc sinh hoạt của anh ấy không có quy luật.</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="G14" s="9" t="str">
+      <c r="G14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>心情|xīnqíng|tâm trạng|今天我心情很好。|Jīntiān wǒ xīnqíng hěn hǎo.|Hôm nay tâm trạng của tôi rất tốt.</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="G15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>味道|wèidào|mùi vị|这个菜的味道不错。|Zhège cài de wèidào bùcuò.|Món ăn này có vị khá ngon.</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="39" thickBot="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="9" t="str">
+      <c r="G16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>果汁|guǒzhī|nước ép trái cây|每天喝一杯果汁。|Měitiān hē yībēi guǒzhī.|Mỗi ngày uống một cốc nước ép trái cây.</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39" thickBot="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="G17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>生活|shēnghuó|cuộc sống, đời sống, sinh hoạt|我喜欢现在的生活。|Wǒ xǐhuān xiànzài de shēnghuó.|Tôi thích cuộc sống hiện tại.</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="G18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>草地|cǎodì|bãi cỏ|我们在草地上踢球。|Wǒmen zài cǎodì shàng tīqiú.|Chúng tôi đá bóng trên bãi cỏ.</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="G19" s="9" t="str">
+      <c r="G19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>维生素|wéishēngsù|vitamin|我需要补充维生素。|Wǒ xūyào bǔchōng wéishēngsù.|Tôi cần bổ sung vitamin.</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="G20" s="9" t="str">
+      <c r="G20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>纤维|xiānwéi|chất xơ|蔬菜里有很多纤维。|Shūcài lǐ yǒu hěn duō xiānwéi.|Trong rau có rất nhiều chất xơ.</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="G21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>力气|lìqi|sức, sức lực|我没力气搬这个桌子。|Wǒ méi lìqi bān zhège zhuōzi.|Tôi không có sức để bê cái bàn này.</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>牙科|yákē|Nha khoa|我要去牙科看牙。|Wǒ yào qù yákē kàn yá.|Tôi phải đến nha khoa khám răng.</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>难怪|nánguài|chẳng trách, hèn chi|难怪你这么累。|Nánguài nǐ zhème lèi.|Hèn chi bạn mệt như vậy.</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G24" s="9" t="str">
+      <c r="G24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>眼泪|yǎnlèi|nước mắt|她流下了眼泪。|Tā liúxiàle yǎnlèi.|Cô ấy đã rơi nước mắt.</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="G25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>泪水|lèishuǐ|nước mắt|她的泪水停不下来。|Tā de lèishuǐ tíng bù xiàlái.|Nước mắt của cô ấy không ngừng rơi.</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>体检|tǐjiǎn|khám sức khỏe|我每年都做体检。|Wǒ měinián dōu zuò tǐjiǎn.|Tôi khám sức khỏe tổng quát hàng năm.</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="39" thickBot="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="G27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>状况|zhuàngkuàng|tình trạng|他的身体状况很好。|Tā de shēntǐ zhuàngkuàng hěn hǎo.|Tình trạng sức khỏe của anh ấy rất tốt.</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="G28" s="9" t="str">
+      <c r="G28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>腰|yāo|eo, thắt lưng|我觉得腰有点疼。|Wǒ juédé yāo yǒudiǎn téng.|Tôi cảm thấy hơi đau lưng.</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>肚子|dùzi|bụng|我肚子很饿。|Wǒ dùzi hěn è.|Bụng của tôi rất đói.</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>胃脏|wèizàng|dạ dày|他的胃脏不太好。|Tā de wèizàng bù tài hǎo.|Dạ dày của anh ấy không tốt lắm.</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="G31" s="9" t="str">
+      <c r="G31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>肝脏|gānzàng|gan|喝酒对肝脏不好。|Hējiǔ duì gānzàng bù hǎo.|Uống rượu không tốt cho gan.</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="G32" s="9" t="str">
+      <c r="G32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>肺脏|fèizàng|phổi|吸烟会伤害肺脏。|Xīyān huì shānghài fèizàng.|Hút thuốc sẽ làm hại phổi.</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="G33" s="9" t="str">
+      <c r="G33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>心脏|xīnzàng|tim|心脏是身体的中心。|Xīnzàng shì shēntǐ de zhōngxīn.|Tim là trung tâm của cơ thể.</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="G34" s="9" t="str">
+      <c r="G34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>肾脏|shènzàng|thận|多喝水对肾脏好。|Duō hē shuǐ duì shènzàng hǎo.|Uống nhiều nước tốt cho thận.</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="G35" s="9" t="str">
+      <c r="G35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>汗|hàn|mồ hôi|运动后出了很多汗。|Yùndòng hòu chūle hěn duō hàn.|Sau khi vận động đã ra rất nhiều mồ hôi.</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="G36" s="9" t="str">
+      <c r="G36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>皮肤|pífū|da, làn da|她的皮肤很白。|Tā de pífū hěn bái.|Da của cô ấy rất trắng.</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="G37" s="9" t="str">
+      <c r="G37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>秘诀|mìjué|bí quyết|成功的秘诀是努力。|Chénggōng de mìjué shì nǔlì.|Bí quyết thành công là nỗ lực.</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="39" thickBot="1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G38" s="9" t="str">
+      <c r="G38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>洗面奶|xǐmiànnǎi|sữa rửa mặt|她每天用洗面奶洗脸。|Tā měitiān yòng xǐmiànnǎi xǐ liǎn.|Hàng ngày cô ấy dùng sữa rửa mặt để rửa mặt.</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="G39" s="9" t="str">
+      <c r="G39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>面膜|miànmó|mặt nạ|晚上我会敷面膜。|Wǎnshàng wǒ huì fū miànmó.|Buổi tối tôi sẽ đắp mặt nạ.</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="G40" s="9" t="str">
+      <c r="G40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>瑜伽|yújiā|yoga|她喜欢练瑜伽。|Tā xǐhuān liàn yújiā.|Cô ấy thích tập yoga.</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="G41" s="9" t="str">
+      <c r="G41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>抑郁|yìyù|trầm cảm|抑郁症是一种病。|Yìyùzhèng shì yī zhǒng bìng.|Bệnh trầm cảm là một loại bệnh.</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="G42" s="9" t="str">
+      <c r="G42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>心理|xīnlǐ|tâm lý|保持健康的心理。|Bǎochí jiànkāng de xīnlǐ.|Giữ tâm lý khỏe mạnh.</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="39" thickBot="1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="G43" s="9" t="str">
+      <c r="G43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>能量|néngliàng|năng lượng|早餐可以补充能量。|Zǎocān kěyǐ bǔchōng néngliàng.|Bữa sáng có thể bổ sung năng lượng.</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="G44" s="9" t="str">
+      <c r="G44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>生命|shēngmìng|sinh mệnh, sự sống|生命只有一次。|Shēngmìng zhǐyǒu yīcì.|Sinh mệnh chỉ có một lần.</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="G45" s="9" t="str">
+      <c r="G45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>源|yuán|nguồn|运动是快乐的源头。|Yùndòng shì kuàilè de yuántóu.|Vận động là nguồn gốc của niềm vui.</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="G46" s="9" t="str">
+      <c r="G46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>毒素|dúsù|độc tố|运动可以排出毒素。|Yùndòng kěyǐ páichū dúsù.|Vận động có thể đào thải độc tố.</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="39" thickBot="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="G47" s="9" t="str">
+      <c r="G47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>水分|shuǐfèn|nước, lượng nước|身体需要很多水分。|Shēntǐ xūyào hěn duō shuǐfèn.|Cơ thể cần rất nhiều nước.</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="G48" s="9" t="str">
+      <c r="G48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>预防|yùfáng|phòng ngừa|预防疾病很重要。|Yùfáng jíbìng hěn zhòngyào.|Phòng ngừa bệnh tật rất quan trọng.</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="G49" s="9" t="str">
+      <c r="G49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>疾病|jíbìng|bệnh tật|很多疾病可以预防。|Hěn duō jíbìng kěyǐ yùfáng.|Rất nhiều bệnh tật có thể phòng ngừa.</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="G50" s="9" t="str">
+      <c r="G50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>活力|huólì|sức sống|她看起来很有活力。|Tā kàn qǐlái hěn yǒu huólì.|Cô ấy trông rất tràn đầy sức sống.</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="G51" s="9" t="str">
+      <c r="G51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>烟|yān|thuốc lá|他已经不抽烟了。|Tā yǐjīng bù chōuyānle.|Anh ấy đã không hút thuốc nữa.</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="G52" s="9" t="str">
+      <c r="G52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>睡眠|shuìmián|giấc ngủ|我需要充足的睡眠。|Wǒ xūyào chōngzú de shuìmián.|Tôi cần một giấc ngủ đầy đủ.</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="G53" s="9" t="str">
+      <c r="G53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>次数|cìshù|số lần|你一个月锻炼几次？|Nǐ yīgè yuè duànliàn jǐ cì?|Bạn tập thể dục mấy lần một tháng?</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="G54" s="9" t="str">
+      <c r="G54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>习惯|xíguàn|thói quen|养成好习惯。|Yǎngchéng hǎo xíguàn.|Hình thành thói quen tốt.</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="G55" s="9" t="str">
+      <c r="G55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>担心|dānxīn|lo lắng|我很担心你的健康。|Wǒ hěn dānxīn nǐ de jiànkāng.|Tôi rất lo lắng cho sức khỏe của bạn.</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="G56" s="9" t="str">
+      <c r="G56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>锻炼|duànliàn|rèn luyện|每天都要锻炼身体。|Měitiān dū yào duànliàn shēntǐ.|Mỗi ngày đều phải tập thể dục.</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="G57" s="9" t="str">
+      <c r="G57" s="6" t="str">
         <f t="shared" si="0"/>
         <v>关心|guānxīn|quan tâm|父母很关心我。|Fùmǔ hěn guānxīn wǒ.|Bố mẹ rất quan tâm đến tôi.</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="39" thickBot="1">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="G58" s="9" t="str">
+      <c r="G58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>难过|nánguò|buồn bã, đau lòng|听到这个消息我很难过。|Tīng dào zhège xiāoxī wǒ hěn nánguò.|Nghe tin này tôi rất buồn.</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="G59" s="9" t="str">
+      <c r="G59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>打针|dǎzhēn|tiêm thuốc|孩子害怕打针。|Háizi hàipà dǎzhēn.|Đứa trẻ sợ tiêm thuốc.</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="G60" s="9" t="str">
+      <c r="G60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>坚持|jiānchí|kiên trì|坚持锻炼对身体好。|Jiānchí duànliàn duì shēntǐ hǎo.|Kiên trì tập thể dục tốt cho sức khỏe.</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G61" s="9" t="str">
+      <c r="G61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>得|dé|phải|他得了重感冒。|Tā déliǎo zhòng gǎnmào.|Anh ấy bị cảm nặng.</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="G62" s="9" t="str">
+      <c r="G62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>着|zháo|trợ từ|昨晚我睡着了。|Zuó wǎn wǒ shuìzháole.|Tối qua tôi đã ngủ rồi.</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="G63" s="9" t="str">
+      <c r="G63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>闭|bì|nhắm, đóng|请你闭上眼睛。|Qǐng nǐ bì shàng yǎnjīng.|Xin bạn hãy nhắm mắt lại.</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="39" thickBot="1">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G64" s="9" t="str">
+      <c r="G64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>睡不着|shuì bù zháo|ngủ không được|晚上我总是睡不着。|Wǎnshàng wǒ zǒng shì shuì bù zháo.|Buổi tối tôi luôn không ngủ được.</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="G65" s="9" t="str">
+      <c r="G65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>熬夜|áoyè|thức khuya|熬夜对身体不好。|Áoyè duì shēntǐ bù hǎo.|Thức khuya không tốt cho sức khỏe.</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="G66" s="9" t="str">
+      <c r="G66" s="6" t="str">
         <f t="shared" ref="G66:G123" si="1">A66&amp;"|"&amp;B66&amp;"|"&amp;C66&amp;"|"&amp;D66&amp;"|"&amp;E66&amp;"|"&amp;F66</f>
         <v>注意|zhùyì|chú ý|你要注意休息。|Nǐ yào zhùyì xiūxí.|Bạn phải chú ý nghỉ ngơi.</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G67" s="9" t="str">
+      <c r="G67" s="6" t="str">
         <f t="shared" si="1"/>
         <v>提醒|tíxǐng|nhắc nhở|妈妈提醒我早睡。|Māmā tíxǐng wǒ zǎo shuì.|Mẹ nhắc tôi ngủ sớm.</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="39" thickBot="1">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="G68" s="9" t="str">
+      <c r="G68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>放松|fàngsōng|thư giãn, thả lỏng, buông lỏng|我需要放松一下。|Wǒ xūyào fàngsōng yīxià.|Tôi cần thư giãn một chút.</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="39" thickBot="1">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="G69" s="9" t="str">
+      <c r="G69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>重视|zhòngshì|coi trọng|我们应该重视健康。|Wǒmen yīnggāi zhòngshì jiànkāng.|Chúng ta nên coi trọng sức khỏe.</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="39" thickBot="1">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="G70" s="9" t="str">
+      <c r="G70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>调整|tiáozhěng|điều chỉnh|我在调整我的作息。|Wǒ zài tiáozhěng wǒ de zuòxī.|Tôi đang điều chỉnh giờ giấc sinh hoạt của mình.</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="39" thickBot="1">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="G71" s="9" t="str">
+      <c r="G71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>相信|xiāngxìn|tin,tin tưởng,tin rằng|我相信他能做到。|Wǒ xiāngxìn tā néng zuò dào.|Tôi tin anh ấy có thể làm được.</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="G72" s="9" t="str">
+      <c r="G72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>补充|bǔchōng|bổ sung|补充一些水分。|Bǔchōng yīxiē shuǐfèn.|Bổ sung một ít nước.</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="G73" s="9" t="str">
+      <c r="G73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>缺少|quēshǎo|thiếu|他缺少锻炼。|Tā quēshǎo duànliàn.|Anh ấy thiếu rèn luyện.</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="G74" s="9" t="str">
+      <c r="G74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>捂|wǔ|che, bịt|他用手捂着肚子。|Tā yòng shǒu wǔzhe dùzi.|Anh ấy dùng tay ôm bụng.</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G75" s="9" t="str">
+      <c r="G75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>疼|téng|đau|我的头很疼。|Wǒ de tóu hěn téng.|Đầu của tôi rất đau.</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="G76" s="9" t="str">
+      <c r="G76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>止痛|zhǐtòng|giảm đau|这种药可以止痛。|Zhè zhǒng yào kěyǐ zhǐtòng.|Loại thuốc này có thể giảm đau.</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="G77" s="9" t="str">
+      <c r="G77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>保护|bǎohù|bảo vệ|保护眼睛很重要。|Bǎohù yǎnjīng hěn zhòngyào.|Bảo vệ mắt rất quan trọng.</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="39" thickBot="1">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="G78" s="9" t="str">
+      <c r="G78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>负责|fùzé|chịu trách nhiệm|我们要对健康负责。|Wǒmen yào duì jiànkāng fùzé.|Chúng ta phải chịu trách nhiệm với sức khỏe.</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="G79" s="9" t="str">
+      <c r="G79" s="6" t="str">
         <f t="shared" si="1"/>
         <v>按时|ànshí|đúng giờ|我每天按时吃饭。|Wǒ měitiān ànshí chīfàn.|Mỗi ngày tôi ăn cơm đúng giờ.</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="G80" s="9" t="str">
+      <c r="G80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>减肥|jiǎnféi|giảm cân|她正在努力减肥。|Tā zhèngzài nǔlì jiǎnféi.|Cô ấy đang cố gắng giảm cân.</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="39" thickBot="1">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="G81" s="9" t="str">
+      <c r="G81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>控制|kòngzhì|kiểm soát, khống chế, điều khiển|我要控制体重。|Wǒ yào kòngzhì tǐzhòng.|Tôi phải kiểm soát cân nặng.</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="G82" s="9" t="str">
+      <c r="G82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>敷|fū|đắp, thoa|她在脸上敷面膜。|Tā zài liǎn shàng fū miànmó.|Cô ấy đang đắp mặt nạ lên mặt.</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="39" thickBot="1">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="G83" s="9" t="str">
+      <c r="G83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>鼓励|gǔlì|khuyến khích, khích lệ, cổ vũ|老师鼓励我们学习。|Lǎoshī gǔlì wǒmen xuéxí.|Thầy giáo khuyến khích chúng tôi học tập.</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G84" s="9" t="str">
+      <c r="G84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>恢复|huīfù|khôi phục|他很快恢复了健康。|Tā hěn kuài huīfùle jiànkāng.|Anh ấy đã sớm phục hồi sức khỏe.</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="G85" s="9" t="str">
+      <c r="G85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>排除|páichú|loại bỏ|运动可以排除毒素。|Yùndòng kěyǐ páichú dúsù.|Vận động có thể loại bỏ độc tố.</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="39" thickBot="1">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="G86" s="9" t="str">
+      <c r="G86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>保持|bǎochí|giữ, duy trì|我们要保持好心情。|Wǒmen yào bǎochí hǎo xīnqíng.|Chúng ta phải giữ tâm trạng tốt.</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="G87" s="9" t="str">
+      <c r="G87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>戒|jiè|cai|他决心戒烟。|Tā juéxīn jièyān.|Anh ấy quyết tâm cai thuốc lá.</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="G88" s="9" t="str">
+      <c r="G88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>减少|jiǎnshǎo|giảm bớt|我们要减少垃圾。|Wǒmen yào jiǎnshǎo lājī.|Chúng ta phải giảm rác thải.</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="G89" s="9" t="str">
+      <c r="G89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>增加|zēngjiā|tăng thêm|我增加了运动时间。|Wǒ zēngjiāle yùndòng shíjiān.|Tôi đã tăng thời gian vận động.</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G90" s="9" t="str">
+      <c r="G90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>伤害|shānghài|làm tổn thương|熬夜会伤害身体。|Áoyè huì shānghài shēntǐ.|Thức khuya sẽ làm hại cơ thể.</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="39" thickBot="1">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="G91" s="9" t="str">
+      <c r="G91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>治疗|zhìliáo|chữa bệnh, điều trị|这种病很难治疗。|Zhè zhǒng bìng hěn nán zhìliáo.|Căn bệnh này rất khó điều trị.</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="G92" s="9" t="str">
+      <c r="G92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>习惯|xíguàn|quen|我已经习惯早起了。|Wǒ yǐjīng xíguàn zǎo qǐle.|Tôi đã quen với việc dậy sớm rồi.</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="G93" s="9" t="str">
+      <c r="G93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>失眠|shīmián|mất ngủ|他最近总是失眠。|Tā zuìjìn zǒngshì shīmián.|Gần đây anh ấy luôn bị mất ngủ.</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="G94" s="9" t="str">
+      <c r="G94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>冒|mào|toát ra, bốc lên|他冒了一身冷汗。|Tā màole yīshēn lěnghàn.|Anh ấy toát mồ hôi lạnh toàn thân.</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="G95" s="9" t="str">
+      <c r="G95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>几乎|jīhū|gần như|我几乎忘了这件事。|Wǒ jīhū wàngle zhè jiàn shì.|Tôi gần như đã quên chuyện này.</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="G96" s="9" t="str">
+      <c r="G96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>努力|nǔlì|nỗ lực|我们要努力学习。|Wǒmen yào nǔlì xuéxí.|Chúng ta phải cố gắng học tập.</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="G97" s="9" t="str">
+      <c r="G97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>其实|qíshí|thật ra|其实他并不开心。|Qíshí tā bìng bù kāixīn.|Thật ra anh ấy không vui.</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="G98" s="9" t="str">
+      <c r="G98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>实在|shízài|thật sự, quả thực|我实在太累了。|Wǒ shízài tài lèile.|Tôi thực sự quá mệt rồi.</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="G99" s="9" t="str">
+      <c r="G99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>奇怪|qíguài|kỳ lạ|我觉得这件事很奇怪。|Wǒ juédé zhè jiàn shì hěn qíguài.|Tôi cảm thấy chuyện này rất kỳ lạ.</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="39" thickBot="1">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="G100" s="9" t="str">
+      <c r="G100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>清淡|qīngdàn|thanh đạm|医生建议饮食清淡。|Yīshēng jiànyì yǐnshí qīngdàn.|Bác sĩ khuyên nên ăn uống thanh đạm.</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="39" thickBot="1">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="G101" s="9" t="str">
+      <c r="G101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>改变|gǎibiàn|thay đổi|他改变了生活习惯。|Tā gǎibiànle shēnghuó xíguàn.|Anh ấy đã thay đổi thói quen sinh hoạt.</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="39" thickBot="1">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="G102" s="9" t="str">
+      <c r="G102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>没有用|méiyǒu yòng|không tác dụng|这个方法没有用。|Zhège fāngfǎ méiyǒu yòng.|Phương pháp này không có tác dụng.</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="39" thickBot="1">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="G103" s="9" t="str">
+      <c r="G103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>规律|guīlǜ|quy luật, điều độ|她的生活很有规律。|Tā de shēnghuó hěn yǒu guīlǜ.|Cuộc sống của cô ấy rất có quy luật.</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="G104" s="9" t="str">
+      <c r="G104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>严重|yánzhòng|nghiêm trọng|这个问题很严重。|Zhège wèntí hěn yánzhòng.|Vấn đề này rất nghiêm trọng.</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="G105" s="9" t="str">
+      <c r="G105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>难受|nánshòu|khó chịu|我感觉身体很难受。|Wǒ gǎnjué shēntǐ hěn nánshòu.|Tôi cảm thấy cơ thể rất khó chịu.</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="G106" s="9" t="str">
+      <c r="G106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>当然|dāngrán|đương nhiên|当然，我可以帮你。|Dāngrán, wǒ kěyǐ bāng nǐ.|Đương nhiên, tôi có thể giúp bạn.</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="G107" s="9" t="str">
+      <c r="G107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>过度|guòdù|quá độ, quá mức|他工作过度了。|Tā gōngzuò guòdùle.|Anh ấy đã làm việc quá độ rồi.</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="G108" s="9" t="str">
+      <c r="G108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>疲劳|píláo|mệt mỏi|我感觉很疲劳。|Wǒ gǎnjué hěn píláo.|Tôi cảm thấy rất mệt mỏi.</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="G109" s="9" t="str">
+      <c r="G109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>干|gān|khô|皮肤变得很干。|Pífū biànde hěn gān.|Da trở nên rất khô.</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="G110" s="9" t="str">
+      <c r="G110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>湿|shī|ướt|衣服被雨淋湿了。|Yīfú bèi yǔ lín shīle.|Quần áo bị mưa làm ướt.</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9" t="s">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="G111" s="9" t="str">
+      <c r="G111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>好好|hǎohāo||你要好好休息。|Nǐ yào hǎohāo xiūxí.|Bạn phải nghỉ ngơi thật tốt.</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="G112" s="9" t="str">
+      <c r="G112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>常见|chángjiàn|thường gặp|这是常见的问题。|Zhè shì chángjiàn de wèntí.|Đây là một vấn đề thường gặp.</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="G113" s="9" t="str">
+      <c r="G113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>定期|dìngqī|định kỳ|他定期去体检。|Tā dìngqī qù tǐjiǎn.|Anh ấy đi khám sức khỏe định kỳ.</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G114" s="9" t="str">
+      <c r="G114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>苍白|cāngbái|tái nhợt, nhợt nhạt|他的脸色苍白。|Tā de liǎnsè cāngbái.|Sắc mặt của anh ấy trắng bệch.</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="G115" s="9" t="str">
+      <c r="G115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>懒|lǎn|lười|我不想动，我太懒了。|Wǒ bù xiǎng dòng, wǒ tài lǎnle.|Tôi không muốn cử động, tôi quá lười.</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="39" thickBot="1">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="G116" s="9" t="str">
+      <c r="G116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>勤奋|qínfèn|cần cù, siêng năng|他是一个勤奋的学生。|Tā shì yīgè qínfèn de xuéshēng.|Anh ấy là một học sinh siêng năng.</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="39" thickBot="1">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="G117" s="9" t="str">
+      <c r="G117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>值得|zhídé|đáng giá, đáng để, đáng|这件事很值得做。|Zhè jiàn shì hěn zhídé zuò.|Chuyện này rất đáng để làm.</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="G118" s="9" t="str">
+      <c r="G118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>直接|zhíjiē|trực tiếp|你直接告诉我吧。|Nǐ zhíjiē gàosù wǒ ba.|Bạn nói thẳng cho tôi biết đi.</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="39" thickBot="1">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="G119" s="9" t="str">
+      <c r="G119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>着急|zháojí|sốt ruột, nóng vội, vội vàng, |你别着急，慢慢来。|Nǐ bié zháojí, màn man lái.|Bạn đừng lo, từ từ thôi.</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="G120" s="9" t="str">
+      <c r="G120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>害|hài|hại, có hại, làm hại|熬夜很害身体。|Áoyè hěn hài shēntǐ.|Thức khuya rất có hại cho cơ thể.</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="39" thickBot="1">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="G121" s="9" t="str">
+      <c r="G121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>傍晚|bàngwǎn|xế chiều, chập tối, chiều tối|傍晚我们去散步。|Bàngwǎn wǒmen qù sànbù.|Xế chiều chúng tôi đi dạo.</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G122" s="9" t="str">
+      <c r="G122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>全身|quánshēn|toàn thân|我感觉全身无力。|Wǒ gǎnjué quánshēn wúlì.|Tôi cảm thấy toàn thân vô lực.</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="G123" s="9" t="str">
+      <c r="G123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>至少|zhìshǎo|ít nhất|你至少要休息两天。|Nǐ zhìshǎo yào xiūxí liǎng tiān.|Bạn ít nhất phải nghỉ ngơi hai ngày.</v>
       </c>
